--- a/data/income_statement/3digits/total/024_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/024_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>024-Support services to forestry</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>024-Support services to forestry</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>564418.47357</v>
+        <v>564418.4735699999</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>476993.49911</v>
@@ -962,31 +868,36 @@
         <v>627109.97464</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>495071.7399299999</v>
+        <v>514774.3628999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>237743.28156</v>
+        <v>239811.58027</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>256418.32975</v>
+        <v>256505.17962</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>353151.12904</v>
+        <v>353230.92915</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>446277.96188</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>500949.46736</v>
+        <v>504791.5897899999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>686229.7652799999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>694509.48413</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>841702.772</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>408832.30057</v>
@@ -1001,34 +912,39 @@
         <v>571974.0978400001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>444551.44598</v>
+        <v>464125.3625399999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>225816.03003</v>
+        <v>227884.32874</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>244581.5647</v>
+        <v>244668.41457</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>335081.5976</v>
+        <v>335161.39771</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>420432.59944</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>458586.0039199999</v>
+        <v>462409.48175</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>605265.0181799999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>613407.12393</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>771919.009</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>39911.83490000001</v>
+        <v>39911.8349</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>39088.19566</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>26327.85436</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>40553.113</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>115674.3381</v>
@@ -1079,7 +1000,7 @@
         <v>11128.29268</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15896.23292</v>
+        <v>16024.93933</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>10988.83713</v>
@@ -1094,16 +1015,21 @@
         <v>23628.54083</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>37832.49001</v>
+        <v>37851.13461</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>54636.89274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>54774.50584000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>29230.65</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>10504.75001</v>
@@ -1118,7 +1044,7 @@
         <v>12864.56707</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>15635.69589</v>
+        <v>15920.53861</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>145.84851</v>
@@ -1136,28 +1062,33 @@
         <v>945.9525599999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>699.32898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>700.51198</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1408.235</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7433.63479</v>
+        <v>7433.634790000001</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>4725.065519999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3557.358910000001</v>
+        <v>3557.35891</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3998.148619999999</v>
+        <v>3998.14862</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4640.484039999999</v>
+        <v>4868.97168</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>128.49555</v>
@@ -1175,28 +1106,33 @@
         <v>882.9821999999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>614.15331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>615.33631</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1372.384</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2905.843409999999</v>
+        <v>2905.84341</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>4138.10037</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>8811.412050000001</v>
+        <v>8811.412049999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>8776.654490000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>10965.64684</v>
+        <v>11022.00192</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>10.24189</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>13.65451</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>35.851</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>165.27181</v>
@@ -1255,14 +1196,19 @@
       <c r="M12" s="48" t="n">
         <v>71.52116000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>553913.7235600001</v>
+        <v>553913.72356</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>467956.47234</v>
@@ -1271,34 +1217,39 @@
         <v>641150.5685000001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>614245.40757</v>
+        <v>614245.4075699999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>479436.0440399999</v>
+        <v>498853.8242900001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>237597.43305</v>
+        <v>239665.73176</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>256351.79357</v>
+        <v>256438.64344</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>351886.60608</v>
+        <v>351966.40619</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>445959.16742</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>500003.5148</v>
+        <v>503845.63723</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>685530.4362999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>693808.9721499999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>840294.537</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>325084.20214</v>
@@ -1313,31 +1264,36 @@
         <v>481570.35547</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>344308.43291</v>
+        <v>362503.71379</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>190419.59144</v>
+        <v>190806.50046</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>194911.24378</v>
+        <v>195089.57519</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>287238.78063</v>
+        <v>287752.78581</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>363770.09769</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>393161.24214</v>
+        <v>396821.23848</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>536125.23775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>541899.89727</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>627723.2290000001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>168793.60297</v>
@@ -1352,7 +1308,7 @@
         <v>225152.99112</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>119371.79687</v>
+        <v>134552.04388</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>36748.57064</v>
@@ -1364,19 +1320,24 @@
         <v>39371.05619</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>51765.02254000001</v>
+        <v>51765.02254</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>67138.67208</v>
+        <v>67291.8535</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>98826.08227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>99136.21891</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>96228.842</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>112775.46054</v>
@@ -1391,34 +1352,39 @@
         <v>165047.56177</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>129852.93878</v>
+        <v>131938.91071</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>68172.30614</v>
+        <v>68343.24424000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>79068.06009999999</v>
+        <v>79105.00399000001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>121139.18581</v>
+        <v>121512.58104</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>130291.11327</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>142277.75479</v>
+        <v>143748.68756</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>222604.08889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>223912.92272</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>268981.174</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>42134.62016999999</v>
+        <v>42134.62017</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>53766.87123</v>
@@ -1427,34 +1393,39 @@
         <v>77592.78709</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>90097.36360999999</v>
+        <v>90097.36361</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>90005.12195</v>
+        <v>90934.18389</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>84910.89295000001</v>
+        <v>85126.86387</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>93519.09435</v>
+        <v>93660.48187</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>123742.87584</v>
+        <v>123883.48579</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>181264.18577</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>182763.3846</v>
+        <v>184777.25175</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>213739.92593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>217895.61498</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>261372.99</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1380.51846</v>
@@ -1484,16 +1455,21 @@
         <v>449.77611</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>981.4306700000001</v>
+        <v>1003.44567</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>955.1406599999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>955.14066</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1140.223</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>228829.52142</v>
@@ -1508,70 +1484,80 @@
         <v>132675.0521</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>135127.61113</v>
+        <v>136350.1105</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>47177.84161</v>
+        <v>48859.23130000001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>61440.54978999999</v>
+        <v>61349.06825</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>64647.82545</v>
+        <v>64213.62037999999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>82189.06972999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>106842.27266</v>
+        <v>107024.39875</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>149405.19855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>151909.07488</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>212571.308</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>78351.14319999999</v>
+        <v>78351.14320000001</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>86813.8636</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>97263.65937000001</v>
+        <v>97263.65936999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>91848.69065999999</v>
+        <v>91848.69066000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>93248.23101999999</v>
+        <v>94813.38615999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>40066.97977000001</v>
+        <v>41729.29067</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>53735.40138</v>
+        <v>53739.23058</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>56450.05789</v>
+        <v>56496.46374</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>72141.61412</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>96327.11892000002</v>
+        <v>96556.7208</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>123471.11076</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>125857.38217</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>163150.179</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3073.14961</v>
@@ -1604,13 +1590,18 @@
         <v>56.51826000000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>619.8020799999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>624.0746899999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2.719</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>21795.90739</v>
@@ -1625,10 +1616,10 @@
         <v>24827.64443</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>30855.24178</v>
+        <v>31622.43031</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>4258.03531</v>
+        <v>4258.035309999999</v>
       </c>
       <c r="I22" s="48" t="n">
         <v>8440.84007</v>
@@ -1643,16 +1634,21 @@
         <v>13958.74806</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>27237.13096</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>27841.61863</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>45667.019</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>53482.0862</v>
+        <v>53482.08620000001</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>63501.52076</v>
@@ -1664,70 +1660,80 @@
         <v>65507.50875</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>59768.07278999999</v>
+        <v>60566.0394</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>35053.10272</v>
+        <v>36715.41362000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>45294.56131</v>
+        <v>45298.39051</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>50176.55033000001</v>
+        <v>50222.95618</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>63609.92254000001</v>
+        <v>63609.92253999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>82311.8526</v>
+        <v>82541.45447999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>95614.17771999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>97391.68884999999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>117480.441</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>150478.37822</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>48175.99199000001</v>
+        <v>48175.99199</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>58103.72911999999</v>
+        <v>58103.72912</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>40826.36144</v>
+        <v>40826.36144000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>41879.38011</v>
+        <v>41536.72434</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>7110.86184</v>
+        <v>7129.94063</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7705.148409999999</v>
+        <v>7609.83767</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>8197.76756</v>
+        <v>7717.15664</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>10047.45561</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>10515.15374</v>
+        <v>10467.67795</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>25934.08779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>26051.69271</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>49421.129</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>18957.1891</v>
@@ -1742,7 +1748,7 @@
         <v>12031.85233</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7690.655319999999</v>
+        <v>8204.90101</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>1440.62032</v>
@@ -1751,22 +1757,27 @@
         <v>1755.66168</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1956.05057</v>
+        <v>1962.75828</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>4176.36204</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4872.27774</v>
+        <v>4872.27775</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8786.54494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8915.18209</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>16897.553</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>3827.1296</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5693.1</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1838,13 +1854,18 @@
         <v>270.31463</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>128.63715</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>141.483</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3482.04822</v>
@@ -1853,13 +1874,13 @@
         <v>2691.07029</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4158.980050000001</v>
+        <v>4158.98005</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3466.25669</v>
+        <v>3466.256689999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1384.24046</v>
+        <v>1559.4375</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>221.06289</v>
@@ -1868,7 +1889,7 @@
         <v>449.30551</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>853.3256</v>
+        <v>853.3256000000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1571.70402</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>1627.93209</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>1328.846</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>205.80335</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>506.8771</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>209.081</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>127.68088</v>
@@ -1931,13 +1962,13 @@
         <v>358.07161</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>379.55165</v>
+        <v>379.5516499999999</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>378.2226700000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>492.89019</v>
+        <v>555.04614</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>43.46149</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>251.17561</v>
@@ -1973,7 +2009,7 @@
         <v>242.16092</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>73.98979</v>
+        <v>73.98979000000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>6.0785</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>159.35088</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>36.106</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>11656.79969</v>
@@ -2012,10 +2053,10 @@
         <v>9234.44484</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4154.543110000001</v>
+        <v>4154.54311</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2576.43011</v>
+        <v>2595.87779</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>76.23755</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>1093.44672</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>7697.712</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>20.64091</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.16656</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.00049</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3213.03995</v>
@@ -2132,31 +2188,36 @@
         <v>3764.36184</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2922.54193</v>
+        <v>3179.98695</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>725.78069</v>
+        <v>725.7806899999999</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>694.5548999999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>649.69838</v>
+        <v>656.4060900000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1569.11109</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1788.16144</v>
+        <v>1788.16145</v>
       </c>
       <c r="M35" s="48" t="n">
         <v>1483.14199</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>1581.879</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>11510.43296</v>
@@ -2171,7 +2232,7 @@
         <v>7351.53434</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>10902.73865</v>
+        <v>11289.59778</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>612.34552</v>
@@ -2180,22 +2241,27 @@
         <v>296.02543</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>291.85893</v>
+        <v>438.87404</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>455.27317</v>
+        <v>455.2731700000001</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>723.9919400000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1574.52282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1574.52283</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3354.704</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>56.74391</v>
@@ -2207,7 +2273,7 @@
         <v>56.07357</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>63.22143</v>
+        <v>63.22142999999999</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>17.80157</v>
@@ -2216,13 +2282,13 @@
         <v>67.16216</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>54.30437</v>
+        <v>54.30437000000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>57.78469</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>54.49162000000001</v>
+        <v>54.49162</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>98.82299</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>252.29687</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>770.28748</v>
+        <v>770.2874800000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2168.382479999999</v>
+        <v>2168.38248</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>2153.40471</v>
@@ -2249,7 +2320,7 @@
         <v>2447.46531</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2695.15638</v>
+        <v>2963.48387</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>8.060919999999999</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>639.0804099999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>24.288</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>16.83108</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>9275.51945</v>
+        <v>9275.519450000002</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4268.672860000001</v>
+        <v>4268.67286</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>7726.649199999999</v>
@@ -2327,7 +2408,7 @@
         <v>4140.62355</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>7910.15993</v>
+        <v>7949.00959</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>51.89927</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>622.42349</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>3295.618</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3.11774</v>
@@ -2366,7 +2452,7 @@
         <v>28.50625</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>39.61852</v>
+        <v>58.05486</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>18.0989</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>21.07771</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1383.68667</v>
@@ -2444,7 +2540,7 @@
         <v>671.46057</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>240.00225</v>
+        <v>301.24789</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>467.12427</v>
@@ -2453,7 +2549,7 @@
         <v>152.77093</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>187.59097</v>
+        <v>334.60608</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>236.12694</v>
@@ -2462,13 +2558,18 @@
         <v>109.67618</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>43.89097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>43.89098</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>31.358</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>6110.40677</v>
@@ -2477,37 +2578,42 @@
         <v>5328.87248</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7600.94585</v>
+        <v>7600.945850000001</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>14215.64704</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>8192.70167</v>
+        <v>9430.496999999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1176.54705</v>
+        <v>1180.10102</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>879.7619099999999</v>
+        <v>892.50534</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>1464.98727</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2957.01519</v>
+        <v>2957.015190000001</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>3852.31981</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6101.67419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6120.041480000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5545.82</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>6008.82043</v>
@@ -2516,19 +2622,19 @@
         <v>5253.96587</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>7463.35264</v>
+        <v>7463.352640000001</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>13865.87675</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>8148.426820000001</v>
+        <v>9386.22215</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1146.0569</v>
+        <v>1149.61087</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>856.3289799999999</v>
+        <v>869.07241</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>1385.78975</v>
@@ -2540,13 +2646,18 @@
         <v>2888.9345</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4920.15738</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4938.52467</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3945.39</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>101.58634</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1181.51681</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1600.43</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>151814.72759</v>
@@ -2594,37 +2710,42 @@
         <v>46661.24681</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>57412.32418</v>
+        <v>57412.32418000001</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>31291.03239</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>30474.59511</v>
+        <v>29021.53057</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6762.58959</v>
+        <v>6778.114409999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>8285.02275</v>
+        <v>8176.96858</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>8396.97193</v>
+        <v>7776.053609999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>10811.52929</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>10811.11973</v>
+        <v>10763.64395</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>27044.43572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>27272.31049</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>57418.158</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1616.48206</v>
@@ -2636,10 +2757,10 @@
         <v>2746.03661</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3299.386730000001</v>
+        <v>3299.38673</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4911.024689999999</v>
+        <v>4911.02469</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>994.39152</v>
@@ -2654,16 +2775,21 @@
         <v>1758.53211</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1857.82876</v>
+        <v>1860.66842</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2182.95989</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2193.0333</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>9526.460999999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>16.85671</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>16.75461</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1685.953</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1599.62535</v>
@@ -2714,10 +2845,10 @@
         <v>2590.1021</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3257.333720000001</v>
+        <v>3257.33372</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4893.071889999999</v>
+        <v>4893.07189</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>951.60829</v>
@@ -2732,22 +2863,27 @@
         <v>1740.2833</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1856.19587</v>
+        <v>1859.03553</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2166.20528</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2176.27869</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7840.508</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1821.41123</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>998.0860799999999</v>
+        <v>998.08608</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>12571.76221</v>
@@ -2771,16 +2907,21 @@
         <v>1124.86299</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3369.51438</v>
+        <v>3370.91834</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1760.10357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1760.10359</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2742.994</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>10.01277</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1.92902</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>298.24653</v>
@@ -2831,7 +2977,7 @@
         <v>105.01177</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>71.8523</v>
+        <v>71.85230000000001</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>150.25657</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>76.91597999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>28.925</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1513.15193</v>
@@ -2888,16 +3039,21 @@
         <v>1071.67175</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3192.055960000001</v>
+        <v>3193.45992</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1681.25857</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1681.25859</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2714.069</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>151609.79842</v>
@@ -2906,37 +3062,42 @@
         <v>47063.20159</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>47586.59858000001</v>
+        <v>47586.59858</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>32649.55121</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>33477.10655</v>
+        <v>32024.04201</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>6351.31415</v>
+        <v>6366.83897</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>8445.725719999999</v>
+        <v>8337.671550000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>7586.7812</v>
+        <v>6965.86288</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>11445.19841</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>9299.434110000002</v>
+        <v>9253.394030000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>27467.29204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>27705.2402</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>64201.625</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>8399.937</v>
@@ -2948,13 +3109,13 @@
         <v>10914.54222</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5689.59354</v>
+        <v>5689.593539999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5301.76653</v>
+        <v>5349.51251</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1152.43913</v>
+        <v>1153.90319</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>1554.40438</v>
@@ -2966,16 +3127,21 @@
         <v>1585.2811</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2510.56246</v>
+        <v>2514.35944</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5304.79716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5366.60343</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>11771.944</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>143209.86142</v>
@@ -2990,28 +3156,31 @@
         <v>26959.95767</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>28175.34002</v>
+        <v>26674.5295</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>5198.87502</v>
+        <v>5212.935780000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>6891.32134</v>
+        <v>6783.26717</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>6368.57637</v>
+        <v>5747.65805</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>9859.917310000001</v>
+        <v>9859.917309999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6788.871650000001</v>
+        <v>6739.03459</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>22162.49488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>22338.63677</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>52429.681</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>520</v>
@@ -3044,28 +3216,31 @@
         <v>512</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>558</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>561</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>